--- a/data/raw/COVID19data_SPF.xlsx
+++ b/data/raw/COVID19data_SPF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremie/Documents/GitHub/COVID19_France_shiny/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremielespinasse/Documents/GitHub/COVID19_France_shiny/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873CEA2-A848-9E46-81BF-1E32143149DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCD49C3-1BC1-E44F-BCB8-B48FC061451F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="920" windowWidth="12460" windowHeight="17440" xr2:uid="{63D851C4-3335-5541-9851-C622FAA23550}"/>
+    <workbookView xWindow="27140" yWindow="760" windowWidth="24260" windowHeight="25020" xr2:uid="{63D851C4-3335-5541-9851-C622FAA23550}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="26">
   <si>
     <t>Région de notification</t>
   </si>
@@ -463,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022E6A91-E94D-F641-8316-65585BF49195}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3291,6 +3289,1126 @@
         <v>43905</v>
       </c>
     </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>618</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>507</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>233</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>90</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206">
+        <v>126</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>1543</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>585</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209">
+        <v>1762</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210">
+        <v>156</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211">
+        <v>178</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212">
+        <v>262</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213">
+        <v>108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214">
+        <v>405</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>25</v>
+      </c>
+      <c r="B221">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>710</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223">
+        <v>549</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224">
+        <v>247</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>103</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <v>145</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227">
+        <v>1820</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228">
+        <v>612</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229">
+        <v>2177</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230">
+        <v>174</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231">
+        <v>200</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232">
+        <v>311</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233">
+        <v>126</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234">
+        <v>478</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235">
+        <v>27</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239">
+        <v>19</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>25</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>858</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243">
+        <v>593</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244">
+        <v>273</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245">
+        <v>128</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246">
+        <v>152</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247">
+        <v>2163</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248">
+        <v>665</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249">
+        <v>2693</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250">
+        <v>208</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251">
+        <v>237</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252">
+        <v>371</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253">
+        <v>128</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254">
+        <v>574</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>18</v>
+      </c>
+      <c r="B255">
+        <v>33</v>
+      </c>
+      <c r="C255" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>19</v>
+      </c>
+      <c r="D256" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259">
+        <v>23</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>1014</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263">
+        <v>696</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>297</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>157</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266">
+        <v>162</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267">
+        <v>2643</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268">
+        <v>700</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269">
+        <v>3384</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270">
+        <v>241</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271">
+        <v>280</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272">
+        <v>444</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273">
+        <v>160</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>17</v>
+      </c>
+      <c r="B274">
+        <v>693</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275">
+        <v>45</v>
+      </c>
+      <c r="C275" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278">
+        <v>15</v>
+      </c>
+      <c r="C278" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279">
+        <v>32</v>
+      </c>
+      <c r="C279" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281">
+        <v>19</v>
+      </c>
+      <c r="C281" t="s">
+        <v>19</v>
+      </c>
+      <c r="D281" s="1">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/COVID19data_SPF.xlsx
+++ b/data/raw/COVID19data_SPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremielespinasse/Documents/GitHub/COVID19_France_shiny/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCD49C3-1BC1-E44F-BCB8-B48FC061451F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9427A3B-217C-7E46-BD91-9C2AA2FD40FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27140" yWindow="760" windowWidth="24260" windowHeight="25020" xr2:uid="{63D851C4-3335-5541-9851-C622FAA23550}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="26">
   <si>
     <t>Région de notification</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022E6A91-E94D-F641-8316-65585BF49195}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="J299" sqref="J299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4409,6 +4409,286 @@
         <v>43909</v>
       </c>
     </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282">
+        <v>1101</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>770</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <v>346</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285">
+        <v>219</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286">
+        <v>168</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287">
+        <v>3006</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>759</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289">
+        <v>3818</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290">
+        <v>187</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291">
+        <v>432</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292">
+        <v>537</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293">
+        <v>190</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294">
+        <v>826</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295">
+        <v>51</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>20</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>21</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>22</v>
+      </c>
+      <c r="B298">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299">
+        <v>32</v>
+      </c>
+      <c r="C299" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301">
+        <v>38</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="1">
+        <v>43910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
